--- a/docs/shr-core-ReferralRequest.xlsx
+++ b/docs/shr-core-ReferralRequest.xlsx
@@ -499,6 +499,16 @@
     <t>http://hl7.org/fhir/ValueSet/request-intent</t>
   </si>
   <si>
+    <t>reasonreference</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
+</t>
+  </si>
+  <si>
+    <t>The justification, as reference to a condition or observation.</t>
+  </si>
+  <si>
     <t>expectedperformertype</t>
   </si>
   <si>
@@ -507,16 +517,6 @@
   </si>
   <si>
     <t>What type of party should carry out the testing.</t>
-  </si>
-  <si>
-    <t>reasonreference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {[CanonicalType[http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-ReasonReference-extension]]} {[]}
-</t>
-  </si>
-  <si>
-    <t>The justification, as reference to a condition or observation.</t>
   </si>
   <si>
     <t>annotation</t>
@@ -3782,7 +3782,7 @@
         <v>40</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>42</v>
@@ -3888,7 +3888,7 @@
         <v>40</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>42</v>
